--- a/Code/Results/Cases/Case_2_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.93182142071346</v>
+        <v>8.900953978797508</v>
       </c>
       <c r="C2">
-        <v>7.137925756626077</v>
+        <v>5.853951952849987</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.13876081460598</v>
+        <v>24.40626903363801</v>
       </c>
       <c r="F2">
-        <v>34.03162500363601</v>
+        <v>39.50262735724699</v>
       </c>
       <c r="G2">
-        <v>16.99681624334234</v>
+        <v>24.30270867600074</v>
       </c>
       <c r="H2">
-        <v>7.775657324808884</v>
+        <v>13.29341888171801</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.352145084148585</v>
+        <v>7.727426390497756</v>
       </c>
       <c r="K2">
-        <v>11.51136233577769</v>
+        <v>8.091957464186308</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.65314789406761</v>
+        <v>17.51430069998071</v>
       </c>
       <c r="O2">
-        <v>12.0006275399919</v>
+        <v>19.61826106759793</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.11145409451358</v>
+        <v>8.588643214191647</v>
       </c>
       <c r="C3">
-        <v>6.866097360603239</v>
+        <v>5.74537355482572</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.65131020423792</v>
+        <v>24.08341760861649</v>
       </c>
       <c r="F3">
-        <v>32.4991224174121</v>
+        <v>39.31606069416119</v>
       </c>
       <c r="G3">
-        <v>16.92264990163041</v>
+        <v>24.41093236236594</v>
       </c>
       <c r="H3">
-        <v>7.870919999871752</v>
+        <v>13.34188378322304</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.400252642549425</v>
+        <v>7.747786845177074</v>
       </c>
       <c r="K3">
-        <v>10.89152680036342</v>
+        <v>7.872516146082173</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.79801431913218</v>
+        <v>17.56232177769927</v>
       </c>
       <c r="O3">
-        <v>12.11199755465585</v>
+        <v>19.70299983665339</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5785284945032</v>
+        <v>8.392033943782351</v>
       </c>
       <c r="C4">
-        <v>6.693543953697769</v>
+        <v>5.677273461581621</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.70488830200626</v>
+        <v>23.88901999585932</v>
       </c>
       <c r="F4">
-        <v>31.55056335859829</v>
+        <v>39.2120571924717</v>
       </c>
       <c r="G4">
-        <v>16.90232527338202</v>
+        <v>24.48545411430007</v>
       </c>
       <c r="H4">
-        <v>7.933828199269366</v>
+        <v>13.37358725792813</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.431111240594373</v>
+        <v>7.76101686104019</v>
       </c>
       <c r="K4">
-        <v>10.49189097753168</v>
+        <v>7.735407093935599</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.88983522376924</v>
+        <v>17.59340333480534</v>
       </c>
       <c r="O4">
-        <v>12.19123219877149</v>
+        <v>19.75903571811734</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.3540069180406</v>
+        <v>8.310817553697584</v>
       </c>
       <c r="C5">
-        <v>6.621875764570571</v>
+        <v>5.649186543081151</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.31119626717601</v>
+        <v>23.81085916733012</v>
       </c>
       <c r="F5">
-        <v>31.16264218328465</v>
+        <v>39.17236032852504</v>
       </c>
       <c r="G5">
-        <v>16.90010062533407</v>
+        <v>24.51784128644061</v>
       </c>
       <c r="H5">
-        <v>7.960539643176821</v>
+        <v>13.38699632658563</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.444017499025264</v>
+        <v>7.766591840888973</v>
       </c>
       <c r="K5">
-        <v>10.32431912999263</v>
+        <v>7.679017748233003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.9279786782401</v>
+        <v>17.60647170255538</v>
       </c>
       <c r="O5">
-        <v>12.22612160825483</v>
+        <v>19.78287685587882</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.31628143017667</v>
+        <v>8.297269223958947</v>
       </c>
       <c r="C6">
-        <v>6.609895909186189</v>
+        <v>5.644503202653018</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.24535049363237</v>
+        <v>23.79794720173647</v>
       </c>
       <c r="F6">
-        <v>31.09816205021158</v>
+        <v>39.16593176194472</v>
       </c>
       <c r="G6">
-        <v>16.90008855584044</v>
+        <v>24.52334076970858</v>
       </c>
       <c r="H6">
-        <v>7.96503907260015</v>
+        <v>13.3892524761725</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.44618055158675</v>
+        <v>7.767528666049806</v>
       </c>
       <c r="K6">
-        <v>10.29621160506545</v>
+        <v>7.66962558869798</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.93435630584967</v>
+        <v>17.60866602591593</v>
       </c>
       <c r="O6">
-        <v>12.23206840403451</v>
+        <v>19.78689638574078</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.57553027641532</v>
+        <v>8.390942900079594</v>
       </c>
       <c r="C7">
-        <v>6.692582784347516</v>
+        <v>5.676895997043825</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.69961082413806</v>
+        <v>23.88796148664375</v>
       </c>
       <c r="F7">
-        <v>31.54533653068983</v>
+        <v>39.21151091346778</v>
       </c>
       <c r="G7">
-        <v>16.90227112737484</v>
+        <v>24.48588273889524</v>
       </c>
       <c r="H7">
-        <v>7.934184126989403</v>
+        <v>13.37376611429321</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.431283959157875</v>
+        <v>7.761091303045872</v>
       </c>
       <c r="K7">
-        <v>10.48965003191135</v>
+        <v>7.73464858875664</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.89034669665633</v>
+        <v>17.59357794889798</v>
       </c>
       <c r="O7">
-        <v>12.19169236480262</v>
+        <v>19.75935317620304</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.65501809805929</v>
+        <v>8.794345820752527</v>
       </c>
       <c r="C8">
-        <v>7.045410740314153</v>
+        <v>5.816825913542958</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.63292404749068</v>
+        <v>24.29421073728707</v>
       </c>
       <c r="F8">
-        <v>33.50509343233367</v>
+        <v>39.43613056347474</v>
       </c>
       <c r="G8">
-        <v>16.96584581353654</v>
+        <v>24.33834245762995</v>
       </c>
       <c r="H8">
-        <v>7.807565491637799</v>
+        <v>13.30972593274272</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.368457921726112</v>
+        <v>7.73429570718434</v>
       </c>
       <c r="K8">
-        <v>11.30163669357199</v>
+        <v>8.016832694350915</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.7025036592797</v>
+        <v>17.53052760059903</v>
       </c>
       <c r="O8">
-        <v>12.03669622636732</v>
+        <v>19.64664680157586</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.54064145445228</v>
+        <v>9.542125317731655</v>
       </c>
       <c r="C9">
-        <v>7.689886149259919</v>
+        <v>6.078832218979755</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.15161321051025</v>
+        <v>25.11709845647103</v>
       </c>
       <c r="F9">
-        <v>37.2681721332482</v>
+        <v>39.95868411586758</v>
       </c>
       <c r="G9">
-        <v>17.30221415291997</v>
+        <v>24.1135331110803</v>
       </c>
       <c r="H9">
-        <v>7.596017185127306</v>
+        <v>13.19956671462303</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.255784939410661</v>
+        <v>7.687511541431689</v>
       </c>
       <c r="K9">
-        <v>12.74037882356058</v>
+        <v>8.552176603285346</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.35679227034445</v>
+        <v>17.4195096944185</v>
       </c>
       <c r="O9">
-        <v>11.82492651505402</v>
+        <v>19.45747196327265</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.78631009204753</v>
+        <v>10.0594618736386</v>
       </c>
       <c r="C10">
-        <v>8.131605221362792</v>
+        <v>6.262472415175492</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30.56242489141456</v>
+        <v>25.7320010169767</v>
       </c>
       <c r="F10">
-        <v>39.96313934770863</v>
+        <v>40.39019867366212</v>
       </c>
       <c r="G10">
-        <v>17.69261439594271</v>
+        <v>23.98831624404232</v>
       </c>
       <c r="H10">
-        <v>7.465594191973511</v>
+        <v>13.12801317167199</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.179517198185946</v>
+        <v>7.65662491990407</v>
       </c>
       <c r="K10">
-        <v>13.70168262858989</v>
+        <v>9.023630319276384</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.11643177574628</v>
+        <v>17.34558000803041</v>
       </c>
       <c r="O10">
-        <v>11.73429590763934</v>
+        <v>19.33797496892892</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.32304325512774</v>
+        <v>10.28686439652517</v>
       </c>
       <c r="C11">
-        <v>8.325204647960019</v>
+        <v>6.343840679907096</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31.6207308203814</v>
+        <v>26.01278023280308</v>
       </c>
       <c r="F11">
-        <v>41.17106314234318</v>
+        <v>40.59624665979749</v>
       </c>
       <c r="G11">
-        <v>17.9038337468915</v>
+        <v>23.9401512489428</v>
       </c>
       <c r="H11">
-        <v>7.412334011405014</v>
+        <v>13.09749411336063</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.146264627154365</v>
+        <v>7.64332501029374</v>
       </c>
       <c r="K11">
-        <v>14.11801193272972</v>
+        <v>9.228663117855644</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.01002060347246</v>
+        <v>17.31359267448851</v>
       </c>
       <c r="O11">
-        <v>11.70917935054795</v>
+        <v>19.28786197727724</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.52202203515606</v>
+        <v>10.37176524537266</v>
       </c>
       <c r="C12">
-        <v>8.39743163669867</v>
+        <v>6.37432120033717</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>32.0159775135272</v>
+        <v>26.1191575854815</v>
       </c>
       <c r="F12">
-        <v>41.62572727596465</v>
+        <v>40.67561891015396</v>
       </c>
       <c r="G12">
-        <v>17.98881952180516</v>
+        <v>23.92318693359406</v>
       </c>
       <c r="H12">
-        <v>7.393098390171791</v>
+        <v>13.08622913820334</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.133883389933439</v>
+        <v>7.638396189562163</v>
       </c>
       <c r="K12">
-        <v>14.27264396011278</v>
+        <v>9.304912842598529</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.97014615843571</v>
+        <v>17.30171533184856</v>
       </c>
       <c r="O12">
-        <v>11.70215839188476</v>
+        <v>19.26949772330111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.47935775540802</v>
+        <v>10.35353523940168</v>
       </c>
       <c r="C13">
-        <v>8.381924913662882</v>
+        <v>6.367771736176008</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.9310985656232</v>
+        <v>26.09624655324051</v>
       </c>
       <c r="F13">
-        <v>41.52793133499038</v>
+        <v>40.65846571183356</v>
       </c>
       <c r="G13">
-        <v>17.97029150409749</v>
+        <v>23.92678365889813</v>
       </c>
       <c r="H13">
-        <v>7.397198624613221</v>
+        <v>13.0886422703209</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.136540474479002</v>
+        <v>7.639452920999658</v>
       </c>
       <c r="K13">
-        <v>14.23947565322955</v>
+        <v>9.288553504067428</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.97871509584306</v>
+        <v>17.30426286560946</v>
       </c>
       <c r="O13">
-        <v>11.70355692056642</v>
+        <v>19.27342552685004</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.33949874162902</v>
+        <v>10.29387389339756</v>
       </c>
       <c r="C14">
-        <v>8.331168694444417</v>
+        <v>6.346355090577868</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>31.65335824559802</v>
+        <v>26.02153147511011</v>
       </c>
       <c r="F14">
-        <v>41.20852441860129</v>
+        <v>40.60275000829289</v>
       </c>
       <c r="G14">
-        <v>17.91072448105852</v>
+        <v>23.93872998310038</v>
       </c>
       <c r="H14">
-        <v>7.410732427016141</v>
+        <v>13.09656148702574</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.145241768845333</v>
+        <v>7.642917359524414</v>
       </c>
       <c r="K14">
-        <v>14.13079419614291</v>
+        <v>9.234964304497364</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.00673166611794</v>
+        <v>17.31261080172138</v>
       </c>
       <c r="O14">
-        <v>11.70855081606097</v>
+        <v>19.28633885449279</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.25327596989132</v>
+        <v>10.25716987961757</v>
       </c>
       <c r="C15">
-        <v>8.299936995372779</v>
+        <v>6.333192992202084</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>31.48251760581413</v>
+        <v>25.9757702313708</v>
       </c>
       <c r="F15">
-        <v>41.0125167548979</v>
+        <v>40.56879616670054</v>
       </c>
       <c r="G15">
-        <v>17.87489379222709</v>
+        <v>23.94621373901421</v>
       </c>
       <c r="H15">
-        <v>7.419145627581701</v>
+        <v>13.10145025036117</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.150599126647783</v>
+        <v>7.64505342574451</v>
       </c>
       <c r="K15">
-        <v>14.06382993381857</v>
+        <v>9.201957170045077</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.02394748130902</v>
+        <v>17.3177548081907</v>
       </c>
       <c r="O15">
-        <v>11.71193923755256</v>
+        <v>19.29432845211766</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.75063384317562</v>
+        <v>10.04443467080162</v>
       </c>
       <c r="C16">
-        <v>8.118802675671015</v>
+        <v>6.257109413109253</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>30.49248948516723</v>
+        <v>25.71366413849735</v>
       </c>
       <c r="F16">
-        <v>39.8838208417523</v>
+        <v>40.37692445025443</v>
       </c>
       <c r="G16">
-        <v>17.67950217231946</v>
+        <v>23.99164179904859</v>
       </c>
       <c r="H16">
-        <v>7.469202022989401</v>
+        <v>13.13004852173848</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.181719627807562</v>
+        <v>7.657509172364425</v>
       </c>
       <c r="K16">
-        <v>13.67405171771133</v>
+        <v>9.010037984846111</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.12344492071493</v>
+        <v>17.34770346218407</v>
       </c>
       <c r="O16">
-        <v>11.73627624153764</v>
+        <v>19.34133557749243</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.4346363543267</v>
+        <v>9.911842941063103</v>
       </c>
       <c r="C17">
-        <v>8.005779575737536</v>
+        <v>6.209864212385603</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.87530057518737</v>
+        <v>25.55306971430068</v>
       </c>
       <c r="F17">
-        <v>39.18665064410355</v>
+        <v>40.2616758289915</v>
       </c>
       <c r="G17">
-        <v>17.56837483828825</v>
+        <v>24.02177061060587</v>
       </c>
       <c r="H17">
-        <v>7.501505710185555</v>
+        <v>13.14811272888933</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.201182626228789</v>
+        <v>7.665342347217003</v>
       </c>
       <c r="K17">
-        <v>13.42955615383594</v>
+        <v>8.889858844317517</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.18523342998683</v>
+        <v>17.36649640366372</v>
       </c>
       <c r="O17">
-        <v>11.7554544829656</v>
+        <v>19.37126188071993</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.25006378266641</v>
+        <v>9.834836279977441</v>
       </c>
       <c r="C18">
-        <v>7.940082055593459</v>
+        <v>6.182486818081689</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>29.51669350850658</v>
+        <v>25.46080538175089</v>
       </c>
       <c r="F18">
-        <v>38.78396472064464</v>
+        <v>40.19630909214074</v>
       </c>
       <c r="G18">
-        <v>17.50761401890925</v>
+        <v>24.0399273484459</v>
       </c>
       <c r="H18">
-        <v>7.520653363167034</v>
+        <v>13.15869395747129</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.212512715481917</v>
+        <v>7.669918450819889</v>
       </c>
       <c r="K18">
-        <v>13.28695457967317</v>
+        <v>8.819848770903878</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.22104829489436</v>
+        <v>17.37746036092708</v>
       </c>
       <c r="O18">
-        <v>11.76799110582255</v>
+        <v>19.38887431991436</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.18708553700688</v>
+        <v>9.808637754660172</v>
       </c>
       <c r="C19">
-        <v>7.917720559411253</v>
+        <v>6.173183024606701</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>29.39465465093771</v>
+        <v>25.42958742491546</v>
       </c>
       <c r="F19">
-        <v>38.64733749094354</v>
+        <v>40.17433690909499</v>
       </c>
       <c r="G19">
-        <v>17.48757809356741</v>
+        <v>24.04621671647059</v>
       </c>
       <c r="H19">
-        <v>7.527232141605529</v>
+        <v>13.16230941820988</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.216372064673479</v>
+        <v>7.671479989470277</v>
       </c>
       <c r="K19">
-        <v>13.23833341811715</v>
+        <v>8.795993513059836</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.23322197227764</v>
+        <v>17.3811991719899</v>
       </c>
       <c r="O19">
-        <v>11.77248921778389</v>
+        <v>19.39490617108336</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.46856637186798</v>
+        <v>9.926035033814506</v>
       </c>
       <c r="C20">
-        <v>8.017882683588377</v>
+        <v>6.214914722612589</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.94137573728563</v>
+        <v>25.57015509185068</v>
       </c>
       <c r="F20">
-        <v>39.26104208173746</v>
+        <v>40.27384929281998</v>
       </c>
       <c r="G20">
-        <v>17.57987653563216</v>
+        <v>24.01847763770809</v>
       </c>
       <c r="H20">
-        <v>7.49800778293653</v>
+        <v>13.14616997833113</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.199096711540125</v>
+        <v>7.664501181103425</v>
       </c>
       <c r="K20">
-        <v>13.455787522365</v>
+        <v>8.902744109627466</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.17862740281911</v>
+        <v>17.3644798522215</v>
       </c>
       <c r="O20">
-        <v>11.75325584198955</v>
+        <v>19.36803480263118</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.38069433956683</v>
+        <v>10.31143127506807</v>
       </c>
       <c r="C21">
-        <v>8.346106672797058</v>
+        <v>6.352654836671497</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>31.73508658901718</v>
+        <v>26.04347646673493</v>
       </c>
       <c r="F21">
-        <v>41.30241753815137</v>
+        <v>40.61907897859082</v>
       </c>
       <c r="G21">
-        <v>17.92808382537876</v>
+        <v>23.9351863872689</v>
       </c>
       <c r="H21">
-        <v>7.406731399416709</v>
+        <v>13.09422749914004</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.142680236474841</v>
+        <v>7.64189685350865</v>
       </c>
       <c r="K21">
-        <v>14.16279862909126</v>
+        <v>9.25074277789381</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.99849108721823</v>
+        <v>17.31015242353084</v>
       </c>
       <c r="O21">
-        <v>11.70701500107204</v>
+        <v>19.28252926130217</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.95194937379681</v>
+        <v>10.55622154184769</v>
       </c>
       <c r="C22">
-        <v>8.554287109260342</v>
+        <v>6.440733268180248</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>32.89405870343433</v>
+        <v>26.35307998851953</v>
       </c>
       <c r="F22">
-        <v>42.62051732667398</v>
+        <v>40.85252641953199</v>
       </c>
       <c r="G22">
-        <v>18.18486894405832</v>
+        <v>23.88818495851163</v>
       </c>
       <c r="H22">
-        <v>7.352546056283585</v>
+        <v>13.06198163115472</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.107039518612573</v>
+        <v>7.627750432569148</v>
       </c>
       <c r="K22">
-        <v>14.60725412458972</v>
+        <v>9.470055049951215</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.88321699516828</v>
+        <v>17.27601901474286</v>
       </c>
       <c r="O22">
-        <v>11.69139203563575</v>
+        <v>19.23021709762675</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.64932381890323</v>
+        <v>10.42624196736941</v>
       </c>
       <c r="C23">
-        <v>8.443764820717425</v>
+        <v>6.393908106796846</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>32.26966548887667</v>
+        <v>26.18784723071284</v>
       </c>
       <c r="F23">
-        <v>41.91852654892975</v>
+        <v>40.72723468542917</v>
       </c>
       <c r="G23">
-        <v>18.04509695869287</v>
+        <v>23.91258718492166</v>
       </c>
       <c r="H23">
-        <v>7.38094416331007</v>
+        <v>13.07903620341376</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.125947726426414</v>
+        <v>7.635243409225184</v>
       </c>
       <c r="K23">
-        <v>14.37165207819031</v>
+        <v>9.35375771796555</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.94451609826997</v>
+        <v>17.29411131110691</v>
       </c>
       <c r="O23">
-        <v>11.6983361040404</v>
+        <v>19.25780978093215</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.45323565063683</v>
+        <v>9.919621206255739</v>
       </c>
       <c r="C24">
-        <v>8.012413105865516</v>
+        <v>6.212632056683152</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.91151492099903</v>
+        <v>25.56243058707557</v>
       </c>
       <c r="F24">
-        <v>39.22741553552371</v>
+        <v>40.26834288942241</v>
       </c>
       <c r="G24">
-        <v>17.57466688890484</v>
+        <v>24.01996378962572</v>
       </c>
       <c r="H24">
-        <v>7.499587406731361</v>
+        <v>13.14704768569731</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.200039316033541</v>
+        <v>7.664881245799338</v>
       </c>
       <c r="K24">
-        <v>13.44393466737739</v>
+        <v>8.896921536253533</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.18161307869811</v>
+        <v>17.36539103777525</v>
       </c>
       <c r="O24">
-        <v>11.75424515485178</v>
+        <v>19.36949249569494</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.05517623475443</v>
+        <v>9.345092678881093</v>
       </c>
       <c r="C25">
-        <v>7.520941890491097</v>
+        <v>6.009418274307518</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>27.22996970045029</v>
+        <v>24.89226177160728</v>
       </c>
       <c r="F25">
-        <v>36.26117350798053</v>
+        <v>39.80877027467271</v>
       </c>
       <c r="G25">
-        <v>17.18699318054507</v>
+        <v>24.16737756461068</v>
       </c>
       <c r="H25">
-        <v>7.649058807851358</v>
+        <v>13.22771887200894</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.28513054872509</v>
+        <v>7.699553846725362</v>
       </c>
       <c r="K25">
-        <v>12.36786945851408</v>
+        <v>8.40719023966923</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.44791163007241</v>
+        <v>17.44819785015589</v>
       </c>
       <c r="O25">
-        <v>11.87146753274157</v>
+        <v>19.50523189779474</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.900953978797508</v>
+        <v>12.93182142071344</v>
       </c>
       <c r="C2">
-        <v>5.853951952849987</v>
+        <v>7.137925756626089</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.40626903363801</v>
+        <v>25.13876081460598</v>
       </c>
       <c r="F2">
-        <v>39.50262735724699</v>
+        <v>34.03162500363597</v>
       </c>
       <c r="G2">
-        <v>24.30270867600074</v>
+        <v>16.99681624334207</v>
       </c>
       <c r="H2">
-        <v>13.29341888171801</v>
+        <v>7.775657324808891</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.727426390497756</v>
+        <v>4.352145084148521</v>
       </c>
       <c r="K2">
-        <v>8.091957464186308</v>
+        <v>11.51136233577771</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.51430069998071</v>
+        <v>11.65314789406751</v>
       </c>
       <c r="O2">
-        <v>19.61826106759793</v>
+        <v>12.00062753999182</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.588643214191647</v>
+        <v>12.11145409451358</v>
       </c>
       <c r="C3">
-        <v>5.74537355482572</v>
+        <v>6.866097360603226</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.08341760861649</v>
+        <v>23.65131020423793</v>
       </c>
       <c r="F3">
-        <v>39.31606069416119</v>
+        <v>32.49912241741216</v>
       </c>
       <c r="G3">
-        <v>24.41093236236594</v>
+        <v>16.92264990163035</v>
       </c>
       <c r="H3">
-        <v>13.34188378322304</v>
+        <v>7.870919999871637</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.747786845177074</v>
+        <v>4.400252642549362</v>
       </c>
       <c r="K3">
-        <v>7.872516146082173</v>
+        <v>10.89152680036343</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.56232177769927</v>
+        <v>11.79801431913207</v>
       </c>
       <c r="O3">
-        <v>19.70299983665339</v>
+        <v>12.11199755465575</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.392033943782351</v>
+        <v>11.57852849450319</v>
       </c>
       <c r="C4">
-        <v>5.677273461581621</v>
+        <v>6.693543953697755</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.88901999585932</v>
+        <v>22.70488830200626</v>
       </c>
       <c r="F4">
-        <v>39.2120571924717</v>
+        <v>31.55056335859835</v>
       </c>
       <c r="G4">
-        <v>24.48545411430007</v>
+        <v>16.90232527338204</v>
       </c>
       <c r="H4">
-        <v>13.37358725792813</v>
+        <v>7.93382819926942</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.76101686104019</v>
+        <v>4.431111240594309</v>
       </c>
       <c r="K4">
-        <v>7.735407093935599</v>
+        <v>10.49189097753167</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.59340333480534</v>
+        <v>11.88983522376927</v>
       </c>
       <c r="O4">
-        <v>19.75903571811734</v>
+        <v>12.19123219877152</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.310817553697584</v>
+        <v>11.3540069180406</v>
       </c>
       <c r="C5">
-        <v>5.649186543081151</v>
+        <v>6.621875764570779</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.81085916733012</v>
+        <v>22.31119626717599</v>
       </c>
       <c r="F5">
-        <v>39.17236032852504</v>
+        <v>31.16264218328462</v>
       </c>
       <c r="G5">
-        <v>24.51784128644061</v>
+        <v>16.9001006253339</v>
       </c>
       <c r="H5">
-        <v>13.38699632658563</v>
+        <v>7.960539643176768</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.766591840888973</v>
+        <v>4.444017499025168</v>
       </c>
       <c r="K5">
-        <v>7.679017748233003</v>
+        <v>10.32431912999264</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.60647170255538</v>
+        <v>11.92797867824003</v>
       </c>
       <c r="O5">
-        <v>19.78287685587882</v>
+        <v>12.2261216082547</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.297269223958947</v>
+        <v>11.31628143017671</v>
       </c>
       <c r="C6">
-        <v>5.644503202653018</v>
+        <v>6.60989590918619</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.79794720173647</v>
+        <v>22.24535049363244</v>
       </c>
       <c r="F6">
-        <v>39.16593176194472</v>
+        <v>31.09816205021161</v>
       </c>
       <c r="G6">
-        <v>24.52334076970858</v>
+        <v>16.90008855584041</v>
       </c>
       <c r="H6">
-        <v>13.3892524761725</v>
+        <v>7.965039072600015</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.767528666049806</v>
+        <v>4.446180551586717</v>
       </c>
       <c r="K6">
-        <v>7.66962558869798</v>
+        <v>10.29621160506549</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.60866602591593</v>
+        <v>11.93435630584957</v>
       </c>
       <c r="O6">
-        <v>19.78689638574078</v>
+        <v>12.23206840403435</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.390942900079594</v>
+        <v>11.57553027641529</v>
       </c>
       <c r="C7">
-        <v>5.676895997043825</v>
+        <v>6.692582784347853</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.88796148664375</v>
+        <v>22.69961082413808</v>
       </c>
       <c r="F7">
-        <v>39.21151091346778</v>
+        <v>31.54533653068988</v>
       </c>
       <c r="G7">
-        <v>24.48588273889524</v>
+        <v>16.90227112737454</v>
       </c>
       <c r="H7">
-        <v>13.37376611429321</v>
+        <v>7.934184126989454</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.761091303045872</v>
+        <v>4.431283959157811</v>
       </c>
       <c r="K7">
-        <v>7.73464858875664</v>
+        <v>10.48965003191134</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.59357794889798</v>
+        <v>11.89034669665627</v>
       </c>
       <c r="O7">
-        <v>19.75935317620304</v>
+        <v>12.19169236480252</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.794345820752527</v>
+        <v>12.65501809805929</v>
       </c>
       <c r="C8">
-        <v>5.816825913542958</v>
+        <v>7.045410740314072</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.29421073728707</v>
+        <v>24.63292404749066</v>
       </c>
       <c r="F8">
-        <v>39.43613056347474</v>
+        <v>33.50509343233362</v>
       </c>
       <c r="G8">
-        <v>24.33834245762995</v>
+        <v>16.96584581353638</v>
       </c>
       <c r="H8">
-        <v>13.30972593274272</v>
+        <v>7.807565491637789</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.73429570718434</v>
+        <v>4.36845792172611</v>
       </c>
       <c r="K8">
-        <v>8.016832694350915</v>
+        <v>11.30163669357201</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.53052760059903</v>
+        <v>11.70250365927967</v>
       </c>
       <c r="O8">
-        <v>19.64664680157586</v>
+        <v>12.03669622636724</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.542125317731655</v>
+        <v>14.54064145445221</v>
       </c>
       <c r="C9">
-        <v>6.078832218979755</v>
+        <v>7.689886149259893</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.11709845647103</v>
+        <v>28.15161321051023</v>
       </c>
       <c r="F9">
-        <v>39.95868411586758</v>
+        <v>37.26817213324825</v>
       </c>
       <c r="G9">
-        <v>24.1135331110803</v>
+        <v>17.3022141529202</v>
       </c>
       <c r="H9">
-        <v>13.19956671462303</v>
+        <v>7.59601718512731</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.687511541431689</v>
+        <v>4.255784939410657</v>
       </c>
       <c r="K9">
-        <v>8.552176603285346</v>
+        <v>12.74037882356053</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.4195096944185</v>
+        <v>11.35679227034451</v>
       </c>
       <c r="O9">
-        <v>19.45747196327265</v>
+        <v>11.82492651505412</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.0594618736386</v>
+        <v>15.78631009204748</v>
       </c>
       <c r="C10">
-        <v>6.262472415175492</v>
+        <v>8.131605221362873</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.7320010169767</v>
+        <v>30.56242489141454</v>
       </c>
       <c r="F10">
-        <v>40.39019867366212</v>
+        <v>39.9631393477086</v>
       </c>
       <c r="G10">
-        <v>23.98831624404232</v>
+        <v>17.69261439594256</v>
       </c>
       <c r="H10">
-        <v>13.12801317167199</v>
+        <v>7.465594191973511</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.65662491990407</v>
+        <v>4.179517198185913</v>
       </c>
       <c r="K10">
-        <v>9.023630319276384</v>
+        <v>13.70168262858989</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.34558000803041</v>
+        <v>11.11643177574625</v>
       </c>
       <c r="O10">
-        <v>19.33797496892892</v>
+        <v>11.73429590763928</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.28686439652517</v>
+        <v>16.3230432551278</v>
       </c>
       <c r="C11">
-        <v>6.343840679907096</v>
+        <v>8.32520464796009</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.01278023280308</v>
+        <v>31.62073082038138</v>
       </c>
       <c r="F11">
-        <v>40.59624665979749</v>
+        <v>41.17106314234322</v>
       </c>
       <c r="G11">
-        <v>23.9401512489428</v>
+        <v>17.90383374689153</v>
       </c>
       <c r="H11">
-        <v>13.09749411336063</v>
+        <v>7.412334011404977</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.64332501029374</v>
+        <v>4.146264627154331</v>
       </c>
       <c r="K11">
-        <v>9.228663117855644</v>
+        <v>14.11801193272973</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.31359267448851</v>
+        <v>11.01002060347245</v>
       </c>
       <c r="O11">
-        <v>19.28786197727724</v>
+        <v>11.70917935054795</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.37176524537266</v>
+        <v>16.52202203515609</v>
       </c>
       <c r="C12">
-        <v>6.37432120033717</v>
+        <v>8.397431636698697</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.1191575854815</v>
+        <v>32.0159775135272</v>
       </c>
       <c r="F12">
-        <v>40.67561891015396</v>
+        <v>41.62572727596468</v>
       </c>
       <c r="G12">
-        <v>23.92318693359406</v>
+        <v>17.98881952180507</v>
       </c>
       <c r="H12">
-        <v>13.08622913820334</v>
+        <v>7.393098390171852</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.638396189562163</v>
+        <v>4.133883389933468</v>
       </c>
       <c r="K12">
-        <v>9.304912842598529</v>
+        <v>14.27264396011281</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.30171533184856</v>
+        <v>10.97014615843575</v>
       </c>
       <c r="O12">
-        <v>19.26949772330111</v>
+        <v>11.70215839188475</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.35353523940168</v>
+        <v>16.47935775540809</v>
       </c>
       <c r="C13">
-        <v>6.367771736176008</v>
+        <v>8.381924913662896</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>26.09624655324051</v>
+        <v>31.93109856562321</v>
       </c>
       <c r="F13">
-        <v>40.65846571183356</v>
+        <v>41.52793133499036</v>
       </c>
       <c r="G13">
-        <v>23.92678365889813</v>
+        <v>17.97029150409728</v>
       </c>
       <c r="H13">
-        <v>13.0886422703209</v>
+        <v>7.39719862461317</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.639452920999658</v>
+        <v>4.13654047447904</v>
       </c>
       <c r="K13">
-        <v>9.288553504067428</v>
+        <v>14.23947565322956</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.30426286560946</v>
+        <v>10.97871509584299</v>
       </c>
       <c r="O13">
-        <v>19.27342552685004</v>
+        <v>11.7035569205663</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.29387389339756</v>
+        <v>16.33949874162909</v>
       </c>
       <c r="C14">
-        <v>6.346355090577868</v>
+        <v>8.331168694444241</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.02153147511011</v>
+        <v>31.653358245598</v>
       </c>
       <c r="F14">
-        <v>40.60275000829289</v>
+        <v>41.20852441860132</v>
       </c>
       <c r="G14">
-        <v>23.93872998310038</v>
+        <v>17.91072448105861</v>
       </c>
       <c r="H14">
-        <v>13.09656148702574</v>
+        <v>7.410732427016247</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.642917359524414</v>
+        <v>4.145241768845239</v>
       </c>
       <c r="K14">
-        <v>9.234964304497364</v>
+        <v>14.13079419614291</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.31261080172138</v>
+        <v>11.00673166611798</v>
       </c>
       <c r="O14">
-        <v>19.28633885449279</v>
+        <v>11.708550816061</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.25716987961757</v>
+        <v>16.25327596989132</v>
       </c>
       <c r="C15">
-        <v>6.333192992202084</v>
+        <v>8.299936995372684</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>25.9757702313708</v>
+        <v>31.48251760581411</v>
       </c>
       <c r="F15">
-        <v>40.56879616670054</v>
+        <v>41.01251675489788</v>
       </c>
       <c r="G15">
-        <v>23.94621373901421</v>
+        <v>17.87489379222712</v>
       </c>
       <c r="H15">
-        <v>13.10145025036117</v>
+        <v>7.419145627581705</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.64505342574451</v>
+        <v>4.150599126647786</v>
       </c>
       <c r="K15">
-        <v>9.201957170045077</v>
+        <v>14.06382993381855</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.3177548081907</v>
+        <v>11.02394748130902</v>
       </c>
       <c r="O15">
-        <v>19.29432845211766</v>
+        <v>11.71193923755259</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.04443467080162</v>
+        <v>15.7506338431756</v>
       </c>
       <c r="C16">
-        <v>6.257109413109253</v>
+        <v>8.118802675671029</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>25.71366413849735</v>
+        <v>30.49248948516723</v>
       </c>
       <c r="F16">
-        <v>40.37692445025443</v>
+        <v>39.88382084175229</v>
       </c>
       <c r="G16">
-        <v>23.99164179904859</v>
+        <v>17.67950217231941</v>
       </c>
       <c r="H16">
-        <v>13.13004852173848</v>
+        <v>7.469202022989342</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.657509172364425</v>
+        <v>4.18171962780747</v>
       </c>
       <c r="K16">
-        <v>9.010037984846111</v>
+        <v>13.67405171771131</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.34770346218407</v>
+        <v>11.12344492071487</v>
       </c>
       <c r="O16">
-        <v>19.34133557749243</v>
+        <v>11.73627624153758</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.911842941063103</v>
+        <v>15.43463635432674</v>
       </c>
       <c r="C17">
-        <v>6.209864212385603</v>
+        <v>8.005779575737437</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.55306971430068</v>
+        <v>29.87530057518737</v>
       </c>
       <c r="F17">
-        <v>40.2616758289915</v>
+        <v>39.18665064410356</v>
       </c>
       <c r="G17">
-        <v>24.02177061060587</v>
+        <v>17.56837483828819</v>
       </c>
       <c r="H17">
-        <v>13.14811272888933</v>
+        <v>7.501505710185608</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.665342347217003</v>
+        <v>4.201182626228851</v>
       </c>
       <c r="K17">
-        <v>8.889858844317517</v>
+        <v>13.42955615383594</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.36649640366372</v>
+        <v>11.18523342998683</v>
       </c>
       <c r="O17">
-        <v>19.37126188071993</v>
+        <v>11.7554544829656</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.834836279977441</v>
+        <v>15.25006378266644</v>
       </c>
       <c r="C18">
-        <v>6.182486818081689</v>
+        <v>7.940082055593459</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.46080538175089</v>
+        <v>29.51669350850661</v>
       </c>
       <c r="F18">
-        <v>40.19630909214074</v>
+        <v>38.78396472064463</v>
       </c>
       <c r="G18">
-        <v>24.0399273484459</v>
+        <v>17.50761401890903</v>
       </c>
       <c r="H18">
-        <v>13.15869395747129</v>
+        <v>7.520653363166854</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.669918450819889</v>
+        <v>4.212512715481855</v>
       </c>
       <c r="K18">
-        <v>8.819848770903878</v>
+        <v>13.28695457967321</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.37746036092708</v>
+        <v>11.2210482948942</v>
       </c>
       <c r="O18">
-        <v>19.38887431991436</v>
+        <v>11.76799110582235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.808637754660172</v>
+        <v>15.18708553700688</v>
       </c>
       <c r="C19">
-        <v>6.173183024606701</v>
+        <v>7.917720559411167</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.42958742491546</v>
+        <v>29.39465465093769</v>
       </c>
       <c r="F19">
-        <v>40.17433690909499</v>
+        <v>38.64733749094353</v>
       </c>
       <c r="G19">
-        <v>24.04621671647059</v>
+        <v>17.48757809356752</v>
       </c>
       <c r="H19">
-        <v>13.16230941820988</v>
+        <v>7.527232141605529</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.671479989470277</v>
+        <v>4.216372064673539</v>
       </c>
       <c r="K19">
-        <v>8.795993513059836</v>
+        <v>13.2383334181171</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.3811991719899</v>
+        <v>11.23322197227765</v>
       </c>
       <c r="O19">
-        <v>19.39490617108336</v>
+        <v>11.77248921778393</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.926035033814506</v>
+        <v>15.46856637186799</v>
       </c>
       <c r="C20">
-        <v>6.214914722612589</v>
+        <v>8.017882683588377</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.57015509185068</v>
+        <v>29.94137573728563</v>
       </c>
       <c r="F20">
-        <v>40.27384929281998</v>
+        <v>39.26104208173749</v>
       </c>
       <c r="G20">
-        <v>24.01847763770809</v>
+        <v>17.57987653563219</v>
       </c>
       <c r="H20">
-        <v>13.14616997833113</v>
+        <v>7.49800778293654</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.664501181103425</v>
+        <v>4.19909671154</v>
       </c>
       <c r="K20">
-        <v>8.902744109627466</v>
+        <v>13.45578752236501</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.3644798522215</v>
+        <v>11.1786274028191</v>
       </c>
       <c r="O20">
-        <v>19.36803480263118</v>
+        <v>11.75325584198957</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.31143127506807</v>
+        <v>16.38069433956683</v>
       </c>
       <c r="C21">
-        <v>6.352654836671497</v>
+        <v>8.346106672797056</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.04347646673493</v>
+        <v>31.7350865890172</v>
       </c>
       <c r="F21">
-        <v>40.61907897859082</v>
+        <v>41.30241753815138</v>
       </c>
       <c r="G21">
-        <v>23.9351863872689</v>
+        <v>17.92808382537876</v>
       </c>
       <c r="H21">
-        <v>13.09422749914004</v>
+        <v>7.406731399416719</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.64189685350865</v>
+        <v>4.142680236474845</v>
       </c>
       <c r="K21">
-        <v>9.25074277789381</v>
+        <v>14.16279862909126</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.31015242353084</v>
+        <v>10.99849108721823</v>
       </c>
       <c r="O21">
-        <v>19.28252926130217</v>
+        <v>11.70701500107205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.55622154184769</v>
+        <v>16.95194937379689</v>
       </c>
       <c r="C22">
-        <v>6.440733268180248</v>
+        <v>8.554287109260249</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>26.35307998851953</v>
+        <v>32.8940587034343</v>
       </c>
       <c r="F22">
-        <v>40.85252641953199</v>
+        <v>42.62051732667401</v>
       </c>
       <c r="G22">
-        <v>23.88818495851163</v>
+        <v>18.18486894405825</v>
       </c>
       <c r="H22">
-        <v>13.06198163115472</v>
+        <v>7.352546056283539</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.627750432569148</v>
+        <v>4.107039518612568</v>
       </c>
       <c r="K22">
-        <v>9.470055049951215</v>
+        <v>14.60725412458978</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.27601901474286</v>
+        <v>10.88321699516828</v>
       </c>
       <c r="O22">
-        <v>19.23021709762675</v>
+        <v>11.69139203563569</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.42624196736941</v>
+        <v>16.64932381890328</v>
       </c>
       <c r="C23">
-        <v>6.393908106796846</v>
+        <v>8.443764820717398</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>26.18784723071284</v>
+        <v>32.26966548887665</v>
       </c>
       <c r="F23">
-        <v>40.72723468542917</v>
+        <v>41.91852654892977</v>
       </c>
       <c r="G23">
-        <v>23.91258718492166</v>
+        <v>18.0450969586929</v>
       </c>
       <c r="H23">
-        <v>13.07903620341376</v>
+        <v>7.380944163309958</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.635243409225184</v>
+        <v>4.125947726426414</v>
       </c>
       <c r="K23">
-        <v>9.35375771796555</v>
+        <v>14.37165207819035</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.29411131110691</v>
+        <v>10.94451609826997</v>
       </c>
       <c r="O23">
-        <v>19.25780978093215</v>
+        <v>11.69833610404037</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.919621206255739</v>
+        <v>15.45323565063694</v>
       </c>
       <c r="C24">
-        <v>6.212632056683152</v>
+        <v>8.012413105865335</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.56243058707557</v>
+        <v>29.91151492099908</v>
       </c>
       <c r="F24">
-        <v>40.26834288942241</v>
+        <v>39.2274155355237</v>
       </c>
       <c r="G24">
-        <v>24.01996378962572</v>
+        <v>17.5746668889048</v>
       </c>
       <c r="H24">
-        <v>13.14704768569731</v>
+        <v>7.499587406731177</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.664881245799338</v>
+        <v>4.200039316033415</v>
       </c>
       <c r="K24">
-        <v>8.896921536253533</v>
+        <v>13.44393466737742</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.36539103777525</v>
+        <v>11.18161307869805</v>
       </c>
       <c r="O24">
-        <v>19.36949249569494</v>
+        <v>11.75424515485168</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.345092678881093</v>
+        <v>14.05517623475444</v>
       </c>
       <c r="C25">
-        <v>6.009418274307518</v>
+        <v>7.520941890491084</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.89226177160728</v>
+        <v>27.22996970045029</v>
       </c>
       <c r="F25">
-        <v>39.80877027467271</v>
+        <v>36.26117350798054</v>
       </c>
       <c r="G25">
-        <v>24.16737756461068</v>
+        <v>17.18699318054513</v>
       </c>
       <c r="H25">
-        <v>13.22771887200894</v>
+        <v>7.649058807851302</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.699553846725362</v>
+        <v>4.285130548725085</v>
       </c>
       <c r="K25">
-        <v>8.40719023966923</v>
+        <v>12.36786945851407</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.44819785015589</v>
+        <v>11.44791163007241</v>
       </c>
       <c r="O25">
-        <v>19.50523189779474</v>
+        <v>11.87146753274156</v>
       </c>
     </row>
   </sheetData>
